--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_164.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_164.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2571428571428571</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>[['Ab', 'Db/5', 'Ab']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(49.26, 52.76), (111.62, 126.86)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(182.64, 184.84), (24.98, 31.82)]</t>
+          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_45</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_5</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01391271738620916</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min7', 'C:7', 'F:min7', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1833333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C:min7', 'F:7']]</t>
+          <t>[['C:7', 'F:min', 'C:maj'], ['F:maj', 'A#:maj', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(58.45, 62.95)]</t>
+          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(19.03, 22.23)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:13.460000', '0:00:18.400000'), ('0:01:58.440000', '0:02:01.680000'), ('0:00:00.240000', '0:00:05.080000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:33.840000', '0:00:36.480000'), ('0:01:09.360000', '0:01:13.200000'), ('0:00:08.540000', '0:00:14.080000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_77</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04886122881355932</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G'], ['D:7', 'D:7', 'G']]</t>
-        </is>
+          <t>isophonics_170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1483870967741935</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C'], ['G:7', 'G:7', 'C']]</t>
+          <t>[['D', 'D/7', 'D/6']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(15.79, 20.07), (14.39, 18.62)]</t>
+          <t>[['C', 'C/5', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(4.07, 7.47), (9.73, 12.62)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:11.500249', '0:00:13.311405')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:02:39.135941', '0:02:55.912358')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3726708074534161</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
-        </is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3873873873873874</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(19.04, 22.58)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(63.84, 67.54)]</t>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2105911330049261</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E', 'A']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(17.965212, 31.142537)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(8.413696, 14.334784)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:13.420000', '0:00:19.500000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:09.780000', '0:00:14.360000'), ('0:00:01.540000', '0:00:06.680000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2708333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj'], ['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[('0:00:55.580000', '0:01:02.320000'), ('0:01:23.200000', '0:01:31.140000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:09.360000', '0:01:13.200000'), ('0:00:08.540000', '0:00:14.080000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2932330827067669</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(61.6, 63.84)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.727609, 8.204625)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(14.92, 20.76)]</t>
+          <t>[('0:00:55.400000', '0:01:05.220000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_236</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3535714285714285</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(14.3, 15.21)]</t>
+          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(43.54, 60.0)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:37.840000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.096875</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#/4', 'B', 'E/5']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(39.148775, 43.514126)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(127.431, 132.656)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:46.932280', '0:00:55.860352')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.465952, 6.886543)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(138.02, 143.32)]</t>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1201923076923077</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A/3', 'E/5', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(14.168, 18.573)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(11.86, 13.9)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#/5', 'C#', 'F#/5'], ['C#', 'F#/5', 'C#']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(68.150589, 75.697074), (2.612267, 17.443474)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(60.391566, 127.006105), (31.46941, 118.925813)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2548262548262548</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(62.48, 64.92)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(144.085784, 149.240614)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_13</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1569115815691158</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Db']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(23.629455, 29.120975)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(131.61, 134.27)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_207</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(113.02, 114.76)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(31.26, 45.88)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
